--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
   <si>
     <t>사이트</t>
   </si>
@@ -682,6 +682,9 @@
     <t>우리들의 블루스 OST Part 3</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -706,9 +709,6 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>기타</t>
   </si>
   <si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>YUE HUA</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -1181,6 +1184,12 @@
       <c r="F2" t="s">
         <v>170</v>
       </c>
+      <c r="G2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1202,10 +1211,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1228,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1254,7 +1263,7 @@
         <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
         <v>231</v>
@@ -1280,7 +1289,7 @@
         <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>231</v>
@@ -1306,7 +1315,7 @@
         <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
         <v>231</v>
@@ -1332,10 +1341,10 @@
         <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1358,7 +1367,7 @@
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
         <v>231</v>
@@ -1384,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
         <v>231</v>
@@ -1410,10 +1419,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1436,7 +1445,7 @@
         <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
         <v>231</v>
@@ -1462,7 +1471,7 @@
         <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>231</v>
@@ -1488,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H14" t="s">
         <v>231</v>
@@ -1514,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
         <v>231</v>
@@ -1592,7 +1601,7 @@
         <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
         <v>231</v>
@@ -1617,6 +1626,12 @@
       <c r="F19" t="s">
         <v>170</v>
       </c>
+      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
@@ -1638,10 +1653,10 @@
         <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1690,7 +1705,7 @@
         <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H22" t="s">
         <v>231</v>
@@ -1742,7 +1757,7 @@
         <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H24" t="s">
         <v>231</v>
@@ -1768,7 +1783,7 @@
         <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H25" t="s">
         <v>231</v>
@@ -1794,7 +1809,7 @@
         <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H26" t="s">
         <v>231</v>
@@ -1820,7 +1835,7 @@
         <v>175</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H27" t="s">
         <v>231</v>
@@ -1846,7 +1861,7 @@
         <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>231</v>
@@ -1872,7 +1887,7 @@
         <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>231</v>
@@ -1898,7 +1913,7 @@
         <v>175</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H30" t="s">
         <v>231</v>
@@ -1924,7 +1939,7 @@
         <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H31" t="s">
         <v>231</v>
@@ -1950,7 +1965,7 @@
         <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H32" t="s">
         <v>231</v>
@@ -2001,6 +2016,12 @@
       <c r="F34" t="s">
         <v>170</v>
       </c>
+      <c r="G34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
@@ -2022,7 +2043,7 @@
         <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
         <v>231</v>
@@ -2048,10 +2069,10 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H36" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2308,10 +2329,10 @@
         <v>185</v>
       </c>
       <c r="G46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2386,10 +2407,10 @@
         <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2542,10 +2563,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2671,6 +2692,12 @@
       <c r="F60" t="s">
         <v>170</v>
       </c>
+      <c r="G60" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
@@ -2692,10 +2719,10 @@
         <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2718,10 +2745,10 @@
         <v>192</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2900,10 +2927,10 @@
         <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2977,6 +3004,12 @@
       <c r="F72" t="s">
         <v>199</v>
       </c>
+      <c r="G72" t="s">
+        <v>249</v>
+      </c>
+      <c r="H72" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -2998,7 +3031,7 @@
         <v>200</v>
       </c>
       <c r="G73" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H73" t="s">
         <v>231</v>
@@ -3128,7 +3161,7 @@
         <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>231</v>
@@ -3206,10 +3239,10 @@
         <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3231,6 +3264,12 @@
       <c r="F82" t="s">
         <v>90</v>
       </c>
+      <c r="G82" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -3304,7 +3343,7 @@
         <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H85" t="s">
         <v>231</v>
@@ -3356,7 +3395,7 @@
         <v>212</v>
       </c>
       <c r="G87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H87" t="s">
         <v>231</v>
@@ -3382,10 +3421,10 @@
         <v>213</v>
       </c>
       <c r="G88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3408,7 +3447,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
         <v>231</v>
@@ -3459,6 +3498,12 @@
       <c r="F91" t="s">
         <v>170</v>
       </c>
+      <c r="G91" t="s">
+        <v>222</v>
+      </c>
+      <c r="H91" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
@@ -3479,6 +3524,12 @@
       <c r="F92" t="s">
         <v>215</v>
       </c>
+      <c r="G92" t="s">
+        <v>249</v>
+      </c>
+      <c r="H92" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -3526,7 +3577,7 @@
         <v>216</v>
       </c>
       <c r="G94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H94" t="s">
         <v>231</v>
@@ -3552,10 +3603,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3578,10 +3629,10 @@
         <v>217</v>
       </c>
       <c r="G96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3656,7 +3707,7 @@
         <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3708,7 +3759,7 @@
         <v>221</v>
       </c>
       <c r="G101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-04</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220504_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>EDAM</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>인터파크 엔터테인먼트</t>
@@ -2225,7 +2222,7 @@
         <v>182</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
         <v>231</v>
@@ -2251,7 +2248,7 @@
         <v>183</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H43" t="s">
         <v>231</v>
@@ -2303,7 +2300,7 @@
         <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
         <v>231</v>
@@ -2355,7 +2352,7 @@
         <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
         <v>231</v>
@@ -2381,7 +2378,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H48" t="s">
         <v>231</v>
@@ -2433,7 +2430,7 @@
         <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H50" t="s">
         <v>231</v>
@@ -2511,7 +2508,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H53" t="s">
         <v>231</v>
@@ -2537,10 +2534,10 @@
         <v>189</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H56" t="s">
         <v>231</v>
@@ -2667,7 +2664,7 @@
         <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H59" t="s">
         <v>231</v>
@@ -2771,10 +2768,10 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2849,7 +2846,7 @@
         <v>194</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
         <v>231</v>
@@ -2979,7 +2976,7 @@
         <v>198</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H71" t="s">
         <v>231</v>
@@ -3005,7 +3002,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
         <v>231</v>
@@ -3057,7 +3054,7 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H74" t="s">
         <v>231</v>
@@ -3083,10 +3080,10 @@
         <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3161,7 +3158,7 @@
         <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
         <v>231</v>
@@ -3343,7 +3340,7 @@
         <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
         <v>231</v>
@@ -3447,7 +3444,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H89" t="s">
         <v>231</v>
@@ -3525,7 +3522,7 @@
         <v>215</v>
       </c>
       <c r="G92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H92" t="s">
         <v>231</v>
@@ -3681,7 +3678,7 @@
         <v>185</v>
       </c>
       <c r="G98" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H98" t="s">
         <v>231</v>
@@ -3707,7 +3704,7 @@
         <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H99" t="s">
         <v>231</v>
@@ -3733,7 +3730,7 @@
         <v>220</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H100" t="s">
         <v>231</v>
@@ -3759,7 +3756,7 @@
         <v>221</v>
       </c>
       <c r="G101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H101" t="s">
         <v>231</v>
